--- a/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
+++ b/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.22</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004044</t>
+          <t>210002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰转型动力灵活配置混合</t>
+          <t>金鹰红利价值混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>79.31</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.13</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
+++ b/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
+++ b/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
+++ b/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
+++ b/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.43</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.55</v>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1422,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
+++ b/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.43</v>
       </c>
     </row>
     <row r="4">
@@ -1406,14 +1471,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.55</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1422,14 +1509,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1438,13 +1547,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
+++ b/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.89</v>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.43</v>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1707,14 +1794,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.55</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1723,14 +1832,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02</v>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1739,13 +1870,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
+++ b/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.79</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.55</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,226 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001411</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安创新驱动灵活配置混合A</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>78.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1889</t>
+          <t>0.1363</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162102</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1723</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001167</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰科技创新股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1650</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>210009</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金鹰核心资源混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1647</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002051</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0593</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004044</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>金鹰转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.88</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0351</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -940,36 +767,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>001411</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>诺安创新驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.52</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2047</t>
+          <t>0.1889</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -978,36 +805,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>78.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2027</t>
+          <t>0.1723</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1016,32 +843,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.96</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1861</t>
+          <t>0.1650</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1054,36 +881,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001411</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安创新驱动灵活配置混合A</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1727</t>
+          <t>0.1647</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1092,36 +919,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004044</t>
+          <t>002051</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰转型动力灵活配置混合</t>
+          <t>诺安创新驱动灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0622</t>
+          <t>0.0593</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1130,36 +957,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002051</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安创新驱动灵活配置混合C</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>85.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0580</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1168,6 +995,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1337,7 +1448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1545,7 +1656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1791,7 +1902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1885,7 +1996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
+++ b/数据整理/stocks/A股/科创板/688058-宝兰德.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.79</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.55</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,204 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +870,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.28</t>
+          <t>76.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1363</t>
+          <t>0.1538</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,226 +954,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001411</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安创新驱动灵活配置混合A</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>78.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1889</t>
+          <t>0.1363</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162102</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1723</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001167</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰科技创新股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1650</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>210009</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金鹰核心资源混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1647</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002051</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0593</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004044</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>金鹰转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.88</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0351</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1051,36 +1048,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>001411</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>诺安创新驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.52</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2047</t>
+          <t>0.1889</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1089,36 +1086,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>78.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2027</t>
+          <t>0.1723</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1127,32 +1124,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.96</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1861</t>
+          <t>0.1650</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1165,36 +1162,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001411</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安创新驱动灵活配置混合A</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1727</t>
+          <t>0.1647</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1203,36 +1200,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004044</t>
+          <t>002051</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰转型动力灵活配置混合</t>
+          <t>诺安创新驱动灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0622</t>
+          <t>0.0593</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1241,36 +1238,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002051</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安创新驱动灵活配置混合C</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>85.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0580</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1279,6 +1276,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1448,7 +1729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1656,7 +1937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1902,7 +2183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1994,174 +2275,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>210009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金鹰核心资源混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1850</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004044</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1094</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>210002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰红利价值混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>74.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0275</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>